--- a/AKS.xlsx
+++ b/AKS.xlsx
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1729008915408722</v>
+        <v>-0.2582596483271513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04059973178138093</v>
+        <v>0.2068858972285834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07431992034937152</v>
+        <v>-0.4813757419646456</v>
       </c>
       <c r="F2" t="n">
-        <v>0.252842794231136</v>
+        <v>-0.4619738452115904</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1729008915408722</v>
+        <v>-0.2582596483271513</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07125894596237668</v>
+        <v>0.1236030560370391</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3187379739790827</v>
+        <v>0.3357819718864607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2320274484221673</v>
+        <v>0.2666511578701594</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04059973178138093</v>
+        <v>0.2068858972285834</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07125894596237668</v>
+        <v>0.1236030560370391</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1122742759613594</v>
+        <v>-0.4059612097711858</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03031974757029409</v>
+        <v>-0.2783598201485743</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07431992034937152</v>
+        <v>-0.4813757419646456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3187379739790827</v>
+        <v>0.3357819718864607</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1122742759613594</v>
+        <v>-0.4059612097711858</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8362821485284716</v>
+        <v>0.8851013696061963</v>
       </c>
     </row>
     <row r="6">
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.252842794231136</v>
+        <v>-0.4619738452115904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2320274484221673</v>
+        <v>0.2666511578701594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03031974757029409</v>
+        <v>-0.2783598201485743</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8362821485284716</v>
+        <v>0.8851013696061963</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>

--- a/AKS.xlsx
+++ b/AKS.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="overall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="max" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="min" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,138 +444,1752 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ABUL2S.STTN.TOTAL_LD_MW.MW</t>
+          <t>Hourly Corr Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SYSCAL.SYSTEM.FREQ.HZ</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>BSRM2S.STTN.TOTAL_LD_MW.MW</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BSRM2S.230_BB.6BUSBAR_BUSB1.KV</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CMLN1S.230_BB.6BUSBAR_BUSB2.KV</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ABUL2S.STTN.TOTAL_LD_MW.MW</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.2582596483271513</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2068858972285834</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.4813757419646456</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.4619738452115904</v>
+        <v>-0.8181933295583425</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>SYSCAL.SYSTEM.FREQ.HZ</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44550.04166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2582596483271513</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1236030560370391</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3357819718864607</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2666511578701594</v>
+        <v>-0.5449595794854819</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BSRM2S.STTN.TOTAL_LD_MW.MW</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>44550.08333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2068858972285834</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1236030560370391</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.4059612097711858</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.2783598201485743</v>
+        <v>-0.5919895945347373</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>BSRM2S.230_BB.6BUSBAR_BUSB1.KV</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>44550.125</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4813757419646456</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3357819718864607</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.4059612097711858</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8851013696061963</v>
+        <v>-0.3536287534828443</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>CMLN1S.230_BB.6BUSBAR_BUSB2.KV</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>44550.16666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4619738452115904</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666511578701594</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.2783598201485743</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8851013696061963</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>-0.627977925012392</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44550.20833333334</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.7647610301499757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44550.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.6605694611935228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44550.29166666666</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.6434919121960438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44550.33333333334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6819653996444399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44550.375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5684506124285662</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44550.41666666666</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6920362841959526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44550.45833333334</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.5735334429473736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44550.5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.7316925313590854</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44550.54166666666</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2289576556756993</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44550.58333333334</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.6952671901925501</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44550.625</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.6824030127437924</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44550.66666666666</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4422232505489905</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44550.70833333334</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.809458814016611</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44550.75</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.7624633277533848</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44550.79166666666</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2458879150011639</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44550.83333333334</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.01716082013076896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44550.875</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.56969576959059</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44550.91666666666</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2352232390035723</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44550.95833333334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6976655078582603</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6856192214880595</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44551.04166666666</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3536856636337307</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44551.08333333334</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7378453161738234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44551.125</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.4436892220115046</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44551.16666666666</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.5946664739565383</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44551.20833333334</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.4594627205539932</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44551.25</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.6238144958835458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44551.29166666666</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.3991724746631155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44551.33333333334</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2961030142360998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44551.375</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7344759058164433</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44551.41666666666</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.6391196922482362</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44551.45833333334</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.1511622343252624</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44551.5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.2208100375662839</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44551.54166666666</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3296627590358921</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44551.58333333334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.6425837954667102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44551.625</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.638450787440953</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44551.66666666666</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.6813421205269137</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44551.70833333334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1978994765806891</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44551.75</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.3670111190826394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44551.79166666666</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2838034159072481</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44551.83333333334</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.04304439218183192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44551.875</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.4548506712415736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44551.91666666666</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.4008735227924622</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44551.95833333334</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2477792318256308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.698215858365852</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44552.04166666666</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.665381458995091</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44552.08333333334</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.5915272863796949</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44552.125</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.3808183586039113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44552.16666666666</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.7440126375422548</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44552.20833333334</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.5207736854361026</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44552.25</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.4088330438475645</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44552.29166666666</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.6157541427235923</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44552.33333333334</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.2146623011929123</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44552.375</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.5248012850016569</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44552.41666666666</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.7500789827877958</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44552.45833333334</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.4889513210168588</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44552.5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.3100618360452413</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44552.54166666666</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.3953794079444526</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44552.58333333334</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.6077806074622986</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44552.625</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.417066100778954</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44552.66666666666</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.5239394606543335</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44552.70833333334</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.3591753986432324</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44552.75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.3529745695901265</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44552.79166666666</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.05858737227783928</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44552.83333333334</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01784745010229673</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44552.875</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.110028124296642</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44552.91666666666</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.2521474522878917</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44552.95833333334</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.6464545420159121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.4887129950764663</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44553.04166666666</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.4063294958391852</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44553.08333333334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.7455490197795771</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44553.125</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.6775999246669631</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44553.16666666666</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.7275105071367346</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44553.20833333334</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.303046706992589</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44553.25</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5253886066855311</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44553.29166666666</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.2443076020375919</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44553.33333333334</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.3557934616058903</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44553.375</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.5715922818928446</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44553.41666666666</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.7153335201216952</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44553.45833333334</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2078955741514438</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44553.5</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.6574483501811202</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44553.54166666666</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.4947047190153759</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44553.58333333334</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.6238786168394874</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44553.625</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.5490402320409198</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44553.66666666666</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.6456251859495903</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44553.70833333334</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.402900680243158</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44553.75</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.3641930607049439</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44553.79166666666</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.02254056296507144</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44553.83333333334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.009977091186107732</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44553.875</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.5051772978420284</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44553.91666666666</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.2942543988472289</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44553.95833333334</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.6591190144292067</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.3595261739121214</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44554.04166666666</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.4119493869704003</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44554.08333333334</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.6136974686302646</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44554.125</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.6512876308392477</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44554.16666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.8224707991777535</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44554.20833333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.7502532374714096</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44554.25</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.5357452994307264</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44554.29166666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.4772179010356926</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44554.33333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.1072533644581492</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44554.375</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.480113750553742</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44554.41666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.5341608498338627</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44554.45833333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.6776058938635036</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44554.5</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.6423927769555005</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44554.54166666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.2202356455353481</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44554.58333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.3928262050888151</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44554.625</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.6648371881459515</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44554.66666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.482611830597427</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44554.70833333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.6436475971883131</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44554.75</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.06597023748494771</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44554.79166666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.4068770744223815</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44554.83333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.04871517574593261</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44554.875</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.244260023373819</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44554.91666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.3677082134279229</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44554.95833333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.692230088145515</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44555</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.5958417556455533</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44555.04166666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.7097694512598989</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44555.08333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.6144535148478523</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44555.125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.4297988087888709</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44555.16666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.5082600775246774</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44555.20833333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.6758657332712756</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44555.25</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.7538513707531393</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44555.29166666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.4552018146686019</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44555.33333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.5542696377522472</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44555.375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.3967461955421498</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44555.41666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.4336565209096343</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44555.45833333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.4812506933478878</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44555.5</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.4117106204466596</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44555.54166666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.4700507241961367</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44555.58333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.5568993280808708</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44555.625</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.6455834577866234</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44555.66666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.0686583560352455</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44555.70833333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.6914264670312655</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44555.75</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.6329423872971816</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44555.79166666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.144089578034316</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44555.83333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.1808219256129276</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44555.875</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.08131201379901069</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44555.91666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.6791727645886422</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44555.95833333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.4627684999295206</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.5567054694062386</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44556.04166666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.6102730120854117</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44556.08333333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.5234580182750337</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44556.125</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.5219041940196877</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44556.16666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.6417040865430376</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44556.20833333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.5111552441805068</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44556.25</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.03367999152687139</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44556.29166666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.5668362195822035</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44556.33333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.587887103452491</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44556.375</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.3682787602290969</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44556.41666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.4775345785580429</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44556.45833333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.6889336469074775</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44556.5</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.5675708373698979</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44556.54166666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.5795223935136378</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44556.58333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.8072414237001777</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44556.625</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.4930466396969742</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44556.66666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.2777227974883444</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44556.70833333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.7394228722531433</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44556.75</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.6000368510585766</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44556.79166666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.2416785665498253</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44556.83333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.3372374787222079</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44556.875</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1051581994613015</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44556.91666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.2447011688621849</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44556.95833333334</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.6330313491593272</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.2724251750792249</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44557.04166666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.5735920303075187</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44557.08333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.5321536152256319</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44557.125</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.6566759914369148</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44557.16666666666</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.5613848908640586</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44557.20833333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.5594251404057877</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44557.25</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.6129613686679298</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44557.29166666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.8178820392029336</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44557.33333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.3503379027712302</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44557.375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.1187297655056411</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44557.41666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.1249914180057624</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44557.45833333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.256881370721326</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44557.5</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.166786995601256</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44557.54166666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.05960538981410702</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44557.58333333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.4770025789504016</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44557.625</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.6619389882083471</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44557.66666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.5406678568715692</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44557.70833333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.525967379865802</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44557.75</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.02196412834699573</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44557.79166666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1448785965834442</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44557.83333333334</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.3021548736281637</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44557.875</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.3452308571479881</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44557.91666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.6145945821115386</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44557.95833333334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.3930735830050783</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.3420742174501684</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44558.04166666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.6422122679529034</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44558.08333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.5310226150097037</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44558.125</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.6773364316681371</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44558.16666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.4972931874407673</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44558.20833333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.267856417911985</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44558.25</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.5212681397155556</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44558.29166666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.4904003067836388</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44558.33333333334</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.4448380593496708</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44558.375</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.3247479321429907</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44558.41666666666</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.4888504860435867</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44558.45833333334</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.5224100973856309</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44558.5</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.3102282586957367</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44558.54166666666</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.2965951870600902</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44558.58333333334</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.2990299731030518</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44558.625</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.6760510922737958</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44558.66666666666</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.4572410678893535</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44558.70833333334</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.01889606442727955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44557.83333333334</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3021548736281637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44554.16666666666</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.8224707991777535</v>
       </c>
     </row>
   </sheetData>
